--- a/Input/Daman/rateSheet.xlsx
+++ b/Input/Daman/rateSheet.xlsx
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,12 +165,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,7 +242,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,7 +270,7 @@
   <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L217" activeCellId="0" sqref="L2:L217"/>
+      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
